--- a/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281299E4-CDE3-401F-9D03-57C00E8C63D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CDED443-4574-4B30-8C7A-E3A20E320FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{095F4A23-E8BA-4CE6-92DF-FE4ECAB80A05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{447C8A17-1A76-4C04-A70C-0B2C790649F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>67,18%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>32,82%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,370 +140,376 @@
     <t>37,55%</t>
   </si>
   <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>51,1%</t>
   </si>
   <si>
-    <t>48,54%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>29,59%</t>
   </si>
   <si>
     <t>32,87%</t>
@@ -512,430 +518,442 @@
     <t>37,84%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>55,46%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
   </si>
   <si>
     <t>51,09%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>53,09%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>44,54%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>48,91%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>43,05%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>92,07%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE2CEA-7E4E-4F68-8546-99E1D6F60F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7EB96-A612-4C21-BD39-8034DB6EEA69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,7 +1692,7 @@
         <v>1026</v>
       </c>
       <c r="D8" s="7">
-        <v>1057557</v>
+        <v>1057556</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1981,7 @@
         <v>3585</v>
       </c>
       <c r="N13" s="7">
-        <v>3636364</v>
+        <v>3636363</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1984,7 +2002,7 @@
         <v>1676</v>
       </c>
       <c r="D14" s="7">
-        <v>1735761</v>
+        <v>1735762</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2035,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA71D3B-E99A-463F-8C57-EBECF0427386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEA195-11A9-4545-9DF0-4931C9C11C3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,7 +2556,7 @@
         <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -2547,13 +2565,13 @@
         <v>245801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>422</v>
@@ -2562,13 +2580,13 @@
         <v>472385</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2601,13 @@
         <v>254597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>196</v>
@@ -2598,13 +2616,13 @@
         <v>212830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>428</v>
@@ -2613,13 +2631,13 @@
         <v>467427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2705,13 @@
         <v>1890144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2257</v>
@@ -2702,13 +2720,13 @@
         <v>2444945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>4014</v>
@@ -2717,13 +2735,13 @@
         <v>4335089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2756,13 @@
         <v>1529638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1037</v>
@@ -2753,13 +2771,13 @@
         <v>1109285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2482</v>
@@ -2768,13 +2786,13 @@
         <v>2638923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F07-8D2F-4449-87B7-81F97695A8F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33930A8B-3262-4A14-8A24-AD614E802372}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2991,13 @@
         <v>537080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>745</v>
@@ -2988,13 +3006,13 @@
         <v>845045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1297</v>
@@ -3003,13 +3021,13 @@
         <v>1382125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3042,13 @@
         <v>217267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -3039,13 +3057,13 @@
         <v>149615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -3054,13 +3072,13 @@
         <v>366882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3146,13 @@
         <v>974040</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1031</v>
@@ -3143,13 +3161,13 @@
         <v>1102744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1947</v>
@@ -3158,13 +3176,13 @@
         <v>2076784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3197,13 @@
         <v>1102345</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>877</v>
@@ -3194,13 +3212,13 @@
         <v>885556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1913</v>
@@ -3209,13 +3227,13 @@
         <v>1987901</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3301,13 @@
         <v>217155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>241</v>
@@ -3298,13 +3316,13 @@
         <v>258982</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>436</v>
@@ -3313,13 +3331,13 @@
         <v>476137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>329731</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -3349,13 +3367,13 @@
         <v>290158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>591</v>
@@ -3364,13 +3382,13 @@
         <v>619889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3456,13 @@
         <v>1728276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>2017</v>
@@ -3453,13 +3471,13 @@
         <v>2206771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>3680</v>
@@ -3468,13 +3486,13 @@
         <v>3935046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>1649342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1309</v>
@@ -3504,13 +3522,13 @@
         <v>1325329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>2861</v>
@@ -3519,13 +3537,13 @@
         <v>2974672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37D5F67-2412-48BF-9944-D90BAC63CB44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A725F7-737B-4293-874F-8CBE74F7CEC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3742,13 @@
         <v>511624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1372</v>
@@ -3739,13 +3757,13 @@
         <v>800888</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>2026</v>
@@ -3754,13 +3772,13 @@
         <v>1312511</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>30010</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>55</v>
@@ -3790,13 +3808,13 @@
         <v>35065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -3805,13 +3823,13 @@
         <v>65075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,28 +3897,28 @@
         <v>2089810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>2816</v>
       </c>
       <c r="I7" s="7">
-        <v>2143119</v>
+        <v>2143118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>4741</v>
@@ -3909,13 +3927,13 @@
         <v>4232929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>72212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>105</v>
@@ -3945,13 +3963,13 @@
         <v>106402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -3960,13 +3978,13 @@
         <v>178614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +4011,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4034,13 +4052,13 @@
         <v>665361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>985</v>
@@ -4049,13 +4067,13 @@
         <v>700982</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>1657</v>
@@ -4064,13 +4082,13 @@
         <v>1366345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4103,13 @@
         <v>7678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4100,13 +4118,13 @@
         <v>12904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -4115,13 +4133,13 @@
         <v>20581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,16 +4204,16 @@
         <v>3251</v>
       </c>
       <c r="D13" s="7">
-        <v>3266795</v>
+        <v>3266796</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>5173</v>
@@ -4204,28 +4222,28 @@
         <v>3644989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>8424</v>
       </c>
       <c r="N13" s="7">
-        <v>6911784</v>
+        <v>6911785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4258,13 @@
         <v>109899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -4255,13 +4273,13 @@
         <v>154371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -4270,13 +4288,13 @@
         <v>264270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4336,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CDED443-4574-4B30-8C7A-E3A20E320FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A1ECC6-65A1-4843-8FD9-B636103F20FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{447C8A17-1A76-4C04-A70C-0B2C790649F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{13CFA485-241E-42B5-8605-6757FF38FDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,823 +137,799 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>50,26%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7EB96-A612-4C21-BD39-8034DB6EEA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD124B5A-371E-409B-B7F1-8201CE93EACE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1483,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="D4" s="7">
-        <v>693161</v>
+        <v>647956</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1498,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1018</v>
+        <v>979</v>
       </c>
       <c r="I4" s="7">
-        <v>1038731</v>
+        <v>998729</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1513,10 +1489,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1730</v>
+        <v>1644</v>
       </c>
       <c r="N4" s="7">
-        <v>1731891</v>
+        <v>1646684</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1534,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="D5" s="7">
-        <v>338562</v>
+        <v>383767</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1549,10 +1525,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="I5" s="7">
-        <v>276382</v>
+        <v>316384</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1564,10 +1540,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="N5" s="7">
-        <v>614945</v>
+        <v>700151</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1618,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1638,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="D7" s="7">
-        <v>635856</v>
+        <v>599249</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1653,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="I7" s="7">
-        <v>811281</v>
+        <v>803018</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1668,10 +1644,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1420</v>
+        <v>1378</v>
       </c>
       <c r="N7" s="7">
-        <v>1447137</v>
+        <v>1402267</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1689,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1026</v>
+        <v>1060</v>
       </c>
       <c r="D8" s="7">
-        <v>1057556</v>
+        <v>1094164</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1704,10 +1680,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="I8" s="7">
-        <v>776392</v>
+        <v>784655</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1719,10 +1695,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1783</v>
+        <v>1825</v>
       </c>
       <c r="N8" s="7">
-        <v>1833949</v>
+        <v>1878819</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1743,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1793,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" s="7">
-        <v>211765</v>
+        <v>206597</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1808,10 +1784,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I10" s="7">
-        <v>245571</v>
+        <v>239025</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1823,10 +1799,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N10" s="7">
-        <v>457336</v>
+        <v>445621</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1844,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>339643</v>
+        <v>344811</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1859,10 +1835,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>230841</v>
+        <v>237387</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1874,10 +1850,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="N11" s="7">
-        <v>570484</v>
+        <v>582199</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1948,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1538</v>
+        <v>1452</v>
       </c>
       <c r="D13" s="7">
-        <v>1540782</v>
+        <v>1453801</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1963,10 +1939,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>2047</v>
+        <v>1994</v>
       </c>
       <c r="I13" s="7">
-        <v>2095582</v>
+        <v>2040770</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1978,10 +1954,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>3585</v>
+        <v>3446</v>
       </c>
       <c r="N13" s="7">
-        <v>3636363</v>
+        <v>3494572</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1999,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1676</v>
+        <v>1762</v>
       </c>
       <c r="D14" s="7">
-        <v>1735762</v>
+        <v>1822742</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2014,10 +1990,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>1250</v>
+        <v>1303</v>
       </c>
       <c r="I14" s="7">
-        <v>1283616</v>
+        <v>1338427</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2029,10 +2005,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>2926</v>
+        <v>3065</v>
       </c>
       <c r="N14" s="7">
-        <v>3019377</v>
+        <v>3161169</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2083,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEA195-11A9-4545-9DF0-4931C9C11C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8E2D1C-E4F6-4FB4-85AE-32203B695A5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,10 +2210,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D4" s="7">
-        <v>749184</v>
+        <v>735526</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2249,10 +2225,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="I4" s="7">
-        <v>1163816</v>
+        <v>1146449</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2264,10 +2240,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1778</v>
+        <v>1749</v>
       </c>
       <c r="N4" s="7">
-        <v>1913001</v>
+        <v>1881975</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2285,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D5" s="7">
-        <v>225459</v>
+        <v>239117</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2300,10 +2276,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>173980</v>
+        <v>191348</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2315,10 +2291,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="N5" s="7">
-        <v>399439</v>
+        <v>430465</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2354,7 +2330,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="D7" s="7">
-        <v>914375</v>
+        <v>887561</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2401,37 +2377,37 @@
         <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="7">
+        <v>935</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1015591</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="7">
-        <v>954</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1035328</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1770</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1903152</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="7">
-        <v>1814</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1949703</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,49 +2416,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>996</v>
+        <v>1021</v>
       </c>
       <c r="D8" s="7">
-        <v>1049582</v>
+        <v>1076396</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="7">
+        <v>700</v>
+      </c>
+      <c r="I8" s="7">
+        <v>742212</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="7">
-        <v>681</v>
-      </c>
-      <c r="I8" s="7">
-        <v>722475</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1721</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1818608</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1677</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1772057</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2520,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>226584</v>
+        <v>219128</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7">
+        <v>211</v>
+      </c>
+      <c r="I10" s="7">
+        <v>238976</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>410</v>
+      </c>
+      <c r="N10" s="7">
+        <v>458104</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="7">
-        <v>216</v>
-      </c>
-      <c r="I10" s="7">
-        <v>245801</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="7">
-        <v>422</v>
-      </c>
-      <c r="N10" s="7">
-        <v>472385</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,49 +2571,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>254597</v>
+        <v>262053</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="7">
+        <v>201</v>
+      </c>
+      <c r="I11" s="7">
+        <v>219655</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>440</v>
+      </c>
+      <c r="N11" s="7">
+        <v>481709</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7">
-        <v>196</v>
-      </c>
-      <c r="I11" s="7">
-        <v>212830</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="7">
-        <v>428</v>
-      </c>
-      <c r="N11" s="7">
-        <v>467427</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2699,49 +2675,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1757</v>
+        <v>1712</v>
       </c>
       <c r="D13" s="7">
-        <v>1890144</v>
+        <v>1842216</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2217</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2401015</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>3929</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4243231</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="7">
-        <v>2257</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2444945</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4014</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4335089</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,49 +2726,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1445</v>
+        <v>1490</v>
       </c>
       <c r="D14" s="7">
-        <v>1529638</v>
+        <v>1577566</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1077</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1153215</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2567</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2730781</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="7">
-        <v>1037</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1109285</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2482</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2638923</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33930A8B-3262-4A14-8A24-AD614E802372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F798A10-F353-4370-88FB-250C2130EF4D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,49 +2961,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D4" s="7">
-        <v>537080</v>
+        <v>523930</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7">
+        <v>736</v>
+      </c>
+      <c r="I4" s="7">
+        <v>835711</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1276</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1359641</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="7">
-        <v>745</v>
-      </c>
-      <c r="I4" s="7">
-        <v>845045</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1297</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1382125</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,49 +3012,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D5" s="7">
-        <v>217267</v>
+        <v>230417</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7">
+        <v>156</v>
+      </c>
+      <c r="I5" s="7">
+        <v>158949</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>378</v>
+      </c>
+      <c r="N5" s="7">
+        <v>389366</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="7">
-        <v>147</v>
-      </c>
-      <c r="I5" s="7">
-        <v>149615</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="7">
-        <v>357</v>
-      </c>
-      <c r="N5" s="7">
-        <v>366882</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,49 +3116,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="D7" s="7">
-        <v>974040</v>
+        <v>943782</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1006</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1076189</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1895</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2019971</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="7">
-        <v>1031</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1102744</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1947</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2076784</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,49 +3167,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1036</v>
+        <v>1063</v>
       </c>
       <c r="D8" s="7">
-        <v>1102345</v>
+        <v>1132603</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
+        <v>902</v>
+      </c>
+      <c r="I8" s="7">
+        <v>912111</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1965</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2044714</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="7">
-        <v>877</v>
-      </c>
-      <c r="I8" s="7">
-        <v>885556</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1913</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1987901</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,49 +3271,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>191</v>
+      </c>
+      <c r="D10" s="7">
+        <v>212865</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="7">
-        <v>217155</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
+        <v>239</v>
+      </c>
+      <c r="I10" s="7">
+        <v>256988</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="7">
+        <v>430</v>
+      </c>
+      <c r="N10" s="7">
+        <v>469854</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="7">
-        <v>241</v>
-      </c>
-      <c r="I10" s="7">
-        <v>258982</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M10" s="7">
-        <v>436</v>
-      </c>
-      <c r="N10" s="7">
-        <v>476137</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,49 +3322,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>329731</v>
+        <v>334021</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="7">
+        <v>287</v>
+      </c>
+      <c r="I11" s="7">
+        <v>292152</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="7">
+        <v>597</v>
+      </c>
+      <c r="N11" s="7">
+        <v>626173</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="H11" s="7">
-        <v>285</v>
-      </c>
-      <c r="I11" s="7">
-        <v>290158</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M11" s="7">
-        <v>591</v>
-      </c>
-      <c r="N11" s="7">
-        <v>619889</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3450,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1663</v>
+        <v>1620</v>
       </c>
       <c r="D13" s="7">
-        <v>1728276</v>
+        <v>1680578</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1981</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2168888</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3601</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3849466</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2206771</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3680</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3935046</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,49 +3477,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1552</v>
+        <v>1595</v>
       </c>
       <c r="D14" s="7">
-        <v>1649342</v>
+        <v>1697040</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1345</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1363212</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2940</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3060252</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1309</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1325329</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2861</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2974672</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A725F7-737B-4293-874F-8CBE74F7CEC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AE559F-0865-4F7C-A510-6486A30F2B27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>654</v>
+        <v>389</v>
       </c>
       <c r="D4" s="7">
-        <v>511624</v>
+        <v>276915</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="7">
+        <v>948</v>
+      </c>
+      <c r="I4" s="7">
+        <v>482580</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N4" s="7">
+        <v>759495</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1372</v>
-      </c>
-      <c r="I4" s="7">
-        <v>800888</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2026</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1312511</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,49 +3763,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="D5" s="7">
-        <v>30010</v>
+        <v>238023</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="7">
+        <v>479</v>
+      </c>
+      <c r="I5" s="7">
+        <v>272928</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="7">
+        <v>781</v>
+      </c>
+      <c r="N5" s="7">
+        <v>510951</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="7">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7">
-        <v>35065</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M5" s="7">
-        <v>92</v>
-      </c>
-      <c r="N5" s="7">
-        <v>65075</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3817,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3832,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3847,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3891,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1925</v>
+        <v>670</v>
       </c>
       <c r="D7" s="7">
-        <v>2089810</v>
+        <v>645229</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1090</v>
+      </c>
+      <c r="I7" s="7">
+        <v>880361</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1760</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1525590</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2816</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2143118</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4741</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4232929</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +3918,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>1322</v>
       </c>
       <c r="D8" s="7">
-        <v>72212</v>
+        <v>1645098</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1357462</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3153</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3002560</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="7">
-        <v>105</v>
-      </c>
-      <c r="I8" s="7">
-        <v>106402</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M8" s="7">
-        <v>172</v>
-      </c>
-      <c r="N8" s="7">
-        <v>178614</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3972,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4002,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4046,49 +4022,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>672</v>
+        <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>665361</v>
+        <v>181938</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
+        <v>307</v>
+      </c>
+      <c r="I10" s="7">
+        <v>199190</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="7">
+        <v>509</v>
+      </c>
+      <c r="N10" s="7">
+        <v>381128</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="7">
-        <v>985</v>
-      </c>
-      <c r="I10" s="7">
-        <v>700982</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1657</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1366345</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,49 +4073,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>479</v>
       </c>
       <c r="D11" s="7">
-        <v>7678</v>
+        <v>464685</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="7">
+        <v>697</v>
+      </c>
+      <c r="I11" s="7">
+        <v>461273</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N11" s="7">
+        <v>925958</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12904</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>20581</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4201,49 +4177,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3251</v>
+        <v>1261</v>
       </c>
       <c r="D13" s="7">
-        <v>3266796</v>
+        <v>1104081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>5173</v>
+        <v>2345</v>
       </c>
       <c r="I13" s="7">
-        <v>3644989</v>
+        <v>1562131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>8424</v>
+        <v>3606</v>
       </c>
       <c r="N13" s="7">
-        <v>6911785</v>
+        <v>2666213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,49 +4228,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>2103</v>
       </c>
       <c r="D14" s="7">
-        <v>109899</v>
+        <v>2347808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
-        <v>179</v>
+        <v>3007</v>
       </c>
       <c r="I14" s="7">
-        <v>154371</v>
+        <v>2091663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>292</v>
+        <v>5110</v>
       </c>
       <c r="N14" s="7">
-        <v>264270</v>
+        <v>4439470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4297,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4312,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
